--- a/azymut.xlsx
+++ b/azymut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uczelnia\INŻYNIERKA\TourHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67134BF0-EFCB-4929-802C-58C4BD9EBD35}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F9B09675-4A6A-4F7F-A06C-274F2303A374}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{770357CC-F211-4773-8517-6D8F326CAC2F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>współrzędne</t>
   </si>
@@ -58,13 +58,31 @@
   </si>
   <si>
     <t>szerokość</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="175" formatCode="0.000000000000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,15 +116,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F1109F-8A8C-49CA-8F2E-93EBD54B1F12}">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,6 +452,7 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -461,18 +485,18 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>52.45</v>
+        <v>52.463563000000001</v>
       </c>
       <c r="D3">
-        <v>16.920999999999999</v>
+        <v>16.921937</v>
       </c>
       <c r="E3">
         <f>RADIANS(C3)</f>
-        <v>0.91542519267102584</v>
+        <v>0.91566191167747379</v>
       </c>
       <c r="F3">
         <f>RADIANS(D3)</f>
-        <v>0.29532716272996051</v>
+        <v>0.29534351646505169</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -480,18 +504,18 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>52.46</v>
+        <v>52.463600999999997</v>
       </c>
       <c r="D4">
-        <v>16.920000000000002</v>
+        <v>16.921856999999999</v>
       </c>
       <c r="E4">
         <f>RADIANS(C4)</f>
-        <v>0.91559972559622527</v>
+        <v>0.91566257490258951</v>
       </c>
       <c r="F4">
         <f>RADIANS(D4)</f>
-        <v>0.29530970943744062</v>
+        <v>0.29534212020165007</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -505,7 +529,7 @@
       </c>
       <c r="C7">
         <f>F4-F3</f>
-        <v>-1.7453292519897801E-5</v>
+        <v>-1.3962634016206898E-6</v>
       </c>
       <c r="D7">
         <v>16.920999999999999</v>
@@ -522,7 +546,7 @@
       </c>
       <c r="C9">
         <f>ATAN2(COS(E3)*SIN(E4)-SIN(E3)*COS(E4)*COS(C7),SIN(C7)*COS(E4))</f>
-        <v>-6.0856251030216406E-2</v>
+        <v>-0.90860131704168501</v>
       </c>
       <c r="D9">
         <v>52.46</v>
@@ -534,7 +558,7 @@
       </c>
       <c r="C10">
         <f>DEGREES(C9)</f>
-        <v>-3.4868063410200683</v>
+        <v>-52.059020726516593</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -545,8 +569,105 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>MOD(C10+360,360)</f>
-        <v>356.51319365897996</v>
-      </c>
+        <v>307.94097927348344</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>SIN(RADIANS(90))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>-8.0108640000000004E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>RADIANS(C16)</f>
+        <v>-1.3981595272948304E-6</v>
+      </c>
+      <c r="D17">
+        <f>(C7-C17)/C17</f>
+        <v>-1.3561583189360374E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <f>COS(E3)*SIN(E4)-SIN(E3)*COS(E4)*COS(C7)</f>
+        <v>6.6322558667231135E-7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6.6579074470274304E-7</v>
+      </c>
+      <c r="E20" s="2">
+        <f>C20-D20</f>
+        <v>-2.5651580304316844E-9</v>
+      </c>
+      <c r="F20" s="3">
+        <f>E20/D20</f>
+        <v>-3.8527991727745569E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <f>SIN(C7)*COS(E4)</f>
+        <v>-8.5069485358944539E-7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-8.5185014087981802E-7</v>
+      </c>
+      <c r="E21" s="2">
+        <f>C21-D21</f>
+        <v>1.1552872903726302E-9</v>
+      </c>
+      <c r="F21" s="3">
+        <f>E21/D21</f>
+        <v>-1.3562095431238791E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>ATAN2(C20,C21)</f>
+        <v>-0.90860131704168501</v>
+      </c>
+      <c r="D23">
+        <v>-0.90738719529834899</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>DEGREES(C23)</f>
+        <v>-52.059020726516593</v>
+      </c>
+      <c r="D24">
+        <f>DEGREES(D23)</f>
+        <v>-51.989456674808373</v>
+      </c>
+      <c r="E24">
+        <f>(C24-D24)/D24</f>
+        <v>1.3380415214442336E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
